--- a/biology/Botanique/Liste_d'idiotismes_botaniques_en_français/Liste_d'idiotismes_botaniques_en_français.xlsx
+++ b/biology/Botanique/Liste_d'idiotismes_botaniques_en_français/Liste_d'idiotismes_botaniques_en_français.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La langue française comprend de nombreux idiotismes botaniques (des idiotismes en rapport avec les végétaux), dont un certain nombre sont mentionnés ci-dessous.
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,15 +550,17 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>arbre
 l'arbre cache la forêt : un détail cache l'ensemble des choses.
 les arbres ne montent pas jusqu'au ciel : les cours de bourse ne peuvent monter indéfiniment.
 artichaut
 avoir un cœur d'artichaut :
-avoir le cœur trop tendre[1]
-s’éprendre facilement et sans discernement de toute personne attirante[2].
+avoir le cœur trop tendre
+s’éprendre facilement et sans discernement de toute personne attirante.
 abricot
 avoir l'abricot en folie : atteindre le comble de l'excitation (argot).
 abricot fendu : sexe de la femme (argot).
@@ -558,9 +572,9 @@
 Il est fendu par devant.
 Maurice Fombeure, Soldat (Gallimard, 1935)
 asperge
-c'est une asperge (en parlant d'une personne) : personne trop grande et trop maigre[3].
+c'est une asperge (en parlant d'une personne) : personne trop grande et trop maigre.
 aubergine
-une aubergine (en France) : préposée au contrôle du stationnement (à cause de la couleur de l'uniforme) ; appelées auparavant pervenche, pour la même raison[4].
+une aubergine (en France) : préposée au contrôle du stationnement (à cause de la couleur de l'uniforme) ; appelées auparavant pervenche, pour la même raison.
 avoine
 prendre une avoinée : recevoir une correction cinglante.</t>
         </is>
@@ -572,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -590,12 +604,14 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>bambou
 coup de bambou :
 brusque fatigue, mais aussi  coup de chaleur,
-dérangement du cerveau[5].
+dérangement du cerveau.
 banane
 coiffure en banane : style de coiffure que portaient les premiers rockers.
 avoir la banane : avoir un grand sourire ou être en grande forme.
@@ -604,12 +620,12 @@
 baobab
 avoir un baobab dans la main : être extrêmement paresseux.
 blé
-manger son blé en herbe : dilapider ses biens[6].
+manger son blé en herbe : dilapider ses biens.
 avoir du blé : avoir de l'argent.
 être fauché comme les blés : ne plus avoir un sou.
 bois
 du bois dont on fait les flûtes : homme timoré, qui adopte facilement l’opinion dominante.
-toucher du bois : chasser la mauvaise fortune, provoquer la chance [7].
+toucher du bois : chasser la mauvaise fortune, provoquer la chance .
 corvée de bois : basse besogne en jargon militaire.
 être du bois dont on fait les (présidents, grands personnages, etc.): avoir les aptitudes à des hautes fonctions.
 ne pas être de bois : être sensible, fragile.
@@ -625,7 +641,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -643,15 +659,17 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>cacahuète
 ne pas valoir une cacahuète : ne pas valoir grand chose.
 calebasse
-tête [8].
+tête .
 carotte
-les carottes sont cuites : tout est perdu[9].
-marcher à la carotte : être mû par l'appât du gain[9].
+les carottes sont cuites : tout est perdu.
+marcher à la carotte : être mû par l'appât du gain.
 manier le bâton et la carotte : motiver successivement par la menace et la récompense.
 bœuf-carotte : membre de la police des polices (IGPN).
 cerise
@@ -667,7 +685,7 @@
 chêne
 solide comme un chêne
 chou
-bête comme chou : enfantin, facile[10].
+bête comme chou : enfantin, facile.
 bout de chou : bébé ou jeune enfant (positif).
 faire chou blanc : échouer.
 se monter le chou : se faire des illusions.
@@ -680,10 +698,10 @@
 chou-fleur
 oreilles en chou-fleur : oreilles déformées, décollées.
 citron
-le citron (argotique) : la tête[11].
+le citron (argotique) : la tête.
 courir sur le citron : importuner.
-presser le citron : surexploiter les gens[11].
-se presser le citron : se creuser la tête ; faire un effort intellectuel pénible[11]
+presser le citron : surexploiter les gens.
+se presser le citron : se creuser la tête ; faire un effort intellectuel pénible
 citrouille
 avoir la tête comme une citrouille : être fatigué, avoir de nombreuses préoccupations.
 ne rien avoir dans la citrouille : être stupide.
@@ -703,7 +721,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -721,7 +739,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>échalote
 faire la course à l’échalote : course poursuite en serrant de près le poursuivi.
@@ -738,7 +758,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -756,7 +776,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>fayot (haricot en argot)
 faire le fayot : faire du zèle.
@@ -769,7 +791,7 @@
 figue : l'un des nombreux mot argotiques pour désigner le sexe de la femme.
 mi-figue, mi-raisin : ambigu.
 fleur
-être fleur bleue : être très romantique, voire naïf[12].
+être fleur bleue : être très romantique, voire naïf.
 (partir) la fleur au fusil :  partir à la guerre avec naïveté et plein d'espoir, pas extension, être naïf.
 couvrir de fleurs : combler d'éloges (voir tresser des lauriers).
 à la fleur de l'age : avant la vieillesse.
@@ -783,7 +805,7 @@
 fraise
 être aux fraises : être à côté du sujet, avoir la tremblote.
 avoir envie de fraise : être enceinte ou penser l'être.
-sucrer les fraises : trembler des mains à cause de la sénilité, l'alcool ou la maladie[13].
+sucrer les fraises : trembler des mains à cause de la sénilité, l'alcool ou la maladie.
 ramener sa fraise : la ramener, y mettre son « grain de sel » (plus proche du commérage).
 aller aux fraises : chercher un endroit isolé pour des ébats amoureux, avoir un pantalon trop court, errer sans but.</t>
         </is>
@@ -795,7 +817,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -813,7 +835,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>gland
 gland (vulgaire) : imbécile (quel gland, ce type !).
@@ -838,7 +862,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -856,7 +880,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>haricot
 courir sur le haricot : importuner.
@@ -878,7 +904,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -896,7 +922,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>ivraie
 trier le bon grain de l'ivraie : extraire les bonnes choses parmi les mauvaises.</t>
@@ -909,7 +937,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -927,7 +955,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>lauriers
 se reposer sur ses lauriers : ne rien faire en profitant d'une situation acquise.
@@ -944,7 +974,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -962,7 +992,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>marguerite
 effeuiller la marguerite : supputer les chances qu'une personne nous aime.
@@ -991,7 +1023,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1009,7 +1041,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>navet
 un navet : un mauvais film.
@@ -1032,7 +1066,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1050,22 +1084,24 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>oignon
 montre de gousset (en forme d'oignon).
-en rang d'oignons : sur une unique ligne[14].
-aux petits oignons : Avec beaucoup de soin ou d'attention[14].
-s'occuper de ses oignons : s'occuper de ses affaires[14].
+en rang d'oignons : sur une unique ligne.
+aux petits oignons : Avec beaucoup de soin ou d'attention.
+s'occuper de ses oignons : s'occuper de ses affaires.
 l'avoir dans l'oignon : subir un échec (argot, l'oignon désignant l'anus).
 pelure d'oignon : couleur rouge orangé (pour un vin).
 oignon (populaire) : hallux valgus, difformité des gros orteils.
-s'habiller en pelure d'oignon : Se vêtir de plusieurs couches de vêtements[14].
+s'habiller en pelure d'oignon : Se vêtir de plusieurs couches de vêtements.
 ortie
 jeter le froc (ou la soutane) aux orties : renoncer aux ordres religieux, démissionner.
 ne pas pousser grand-mère dans les orties : ne pas abuser d'une situation déjà généreuse.
 oseille
-oseille : argent, richesse[15].</t>
+oseille : argent, richesse.</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1111,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1093,7 +1129,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>pastèque
 avoir la tête comme une pastèque : voir « avoir la tête comme une citrouille ».
@@ -1135,10 +1173,10 @@
 se fendre la poire : rire aux éclats, rire franchement.
 avaler des poires d'angoisse : vivre une situation très pénible.
 poireau
-faire le poireau, poireauter : attendre longtemps sans bouger[16].
+faire le poireau, poireauter : attendre longtemps sans bouger.
 un poireau (patois picard) : une verrue.
 se dégorger le poireau (vulgaire) : se masturber ou avoir un acte sexuel (pour un homme).
-un poireau : participant à une course de moto, sans expérience ou sans palmarès[17].
+un poireau : participant à une course de moto, sans expérience ou sans palmarès.
 le poireau : le  mérite agricole .
 poirier
 faire le poirier : se tenir en équilibre sur les mains, les pieds en l'air et la tête en bas.
@@ -1172,7 +1210,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1190,7 +1228,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>racine
 prendre racine : s'établir, attendre longtemps au même endroit.
@@ -1228,7 +1268,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1246,7 +1286,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>salade
 raconter des salades, faire des salades : donner des explications confuses et fausses.
@@ -1256,9 +1298,9 @@
 fatiguer une salade : remuer, mélanger la salade afin que l'assaisonnement soit réparti sur toutes les feuilles de manière homogène.
 en salade : en art culinaire, (ingrédients) servis ensemble, dans un même plat.
 sapin
-ça sent le sapin : la fin est proche, ça sent la mort, en référence à l'odeur d'un cercueil fabriqué en sapin[18].
+ça sent le sapin : la fin est proche, ça sent la mort, en référence à l'odeur d'un cercueil fabriqué en sapin.
 passer un sapin à quelqu'un : arnaquer.
-un costard (costume) en sapin : un cercueil[18].
+un costard (costume) en sapin : un cercueil.
 un sapin : taxi (auparavant, fiacre, du fait que le plancher était en bois).</t>
         </is>
       </c>
@@ -1269,7 +1311,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27idiotismes_botaniques_en_fran%C3%A7ais</t>
+          <t>Liste_d'idiotismes_botaniques_en_français</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1287,7 +1329,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>tomate
 une tomate : au bistrot, un mélange de pastis et de sirop de grenadine.
